--- a/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/12,25/08,12,25 ПОКОМ КИ Новороссийск/дв 08,12,25 нррсч пок ки от филиала.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/12,25/08,12,25 ПОКОМ КИ Новороссийск/дв 08,12,25 нррсч пок ки от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\заказы Краснодар\08,12,25 ПОКОМ КИ Новороссийск\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\Краснодар_филиалы\2025\12,25\08,12,25 ПОКОМ КИ Новороссийск\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F782079-AD4F-4044-ADBE-8BD7E5608D5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13044290-1610-4FFD-BCFA-B50F8AAA8624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1000,7 +1000,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF7" sqref="AF7"/>
+      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,7 +2310,7 @@
       </c>
       <c r="Q13" s="19"/>
       <c r="R13" s="4">
-        <f t="shared" ref="R7:R70" si="10">Q13</f>
+        <f t="shared" ref="R13:R55" si="10">Q13</f>
         <v>0</v>
       </c>
       <c r="S13" s="19"/>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="Q75" s="16"/>
       <c r="R75" s="4">
-        <f t="shared" ref="R71:R118" si="28">Q75</f>
+        <f t="shared" ref="R75:R118" si="28">Q75</f>
         <v>0</v>
       </c>
       <c r="S75" s="16"/>
